--- a/data/trans_camb/Cage-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Cage-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/Cage-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Cage-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/trans_camb/Cage-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Cage-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1700,230 +1700,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
